--- a/Udemy Free (tr) - (popularity).xlsx
+++ b/Udemy Free (tr) - (popularity).xlsx
@@ -454,12 +454,12 @@
     <t>Puan: 4,7 / 5</t>
   </si>
   <si>
+    <t>Puan: 4,6 / 5</t>
+  </si>
+  <si>
     <t>Puan: 4,4 / 5</t>
   </si>
   <si>
-    <t>Puan: 4,6 / 5</t>
-  </si>
-  <si>
     <t>Puan: 4,9 / 5</t>
   </si>
   <si>
@@ -487,10 +487,10 @@
     <t>4,7</t>
   </si>
   <si>
+    <t>4,6</t>
+  </si>
+  <si>
     <t>4,4</t>
-  </si>
-  <si>
-    <t>4,6</t>
   </si>
   <si>
     <t>4,9</t>
@@ -1149,10 +1149,10 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>166</v>
@@ -1207,10 +1207,10 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>168</v>
@@ -1236,10 +1236,10 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
         <v>165</v>
@@ -1352,10 +1352,10 @@
         <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
         <v>169</v>
@@ -1381,10 +1381,10 @@
         <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
         <v>167</v>
@@ -1410,10 +1410,10 @@
         <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>167</v>
@@ -1468,10 +1468,10 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
         <v>168</v>
@@ -1497,10 +1497,10 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>167</v>
@@ -1584,10 +1584,10 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
         <v>167</v>
@@ -1700,10 +1700,10 @@
         <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>165</v>
@@ -1903,10 +1903,10 @@
         <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
         <v>172</v>
